--- a/results/supplementary/Table S6. MCMC models random factor results.xlsx
+++ b/results/supplementary/Table S6. MCMC models random factor results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Oilcontent_Longevity/results/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09517135-5B90-407E-B8A8-F4E3CF43D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{09517135-5B90-407E-B8A8-F4E3CF43D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49A74218-C69F-4754-97CC-22BCEDEB9B31}"/>
   <bookViews>
-    <workbookView xWindow="-27150" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{B60FAADC-B236-4CC0-A12E-AA2BC4337E27}"/>
+    <workbookView xWindow="-22260" yWindow="615" windowWidth="21600" windowHeight="11385" xr2:uid="{B60FAADC-B236-4CC0-A12E-AA2BC4337E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Random and phylogeny</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -101,13 +98,58 @@
     <t>g14</t>
   </si>
   <si>
-    <t>Lambda: señal filogenetica de la relacion entrer las variables del modelo</t>
-  </si>
-  <si>
-    <t>Phylogeny: cantidad variación entre los datos esta explicada por la filogenia</t>
-  </si>
-  <si>
     <t>term</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>Model specification</t>
+  </si>
+  <si>
+    <t>Oil content ~ Altitudinal preference</t>
+  </si>
+  <si>
+    <t>Seed mass ~ Oil content</t>
+  </si>
+  <si>
+    <t>Seed mass ~ Ratio UFA/SFA</t>
+  </si>
+  <si>
+    <t>P50 ~ Oil content</t>
+  </si>
+  <si>
+    <t>P50 ~ Ratio UFA/SFA</t>
+  </si>
+  <si>
+    <t>EHS ~ Oil content</t>
+  </si>
+  <si>
+    <t>EHS ~ Ratio UFA/SFA</t>
+  </si>
+  <si>
+    <t>Oil content ~ GDD</t>
+  </si>
+  <si>
+    <t>Ratio UFA/SFA ~ GDD</t>
+  </si>
+  <si>
+    <t>Oil content ~ FDD</t>
+  </si>
+  <si>
+    <t>Ratio UFA/SFA ~ FDD</t>
+  </si>
+  <si>
+    <t>Oil content ~ Snow days</t>
+  </si>
+  <si>
+    <t>Ratio UFA/SFA ~ Snow days</t>
+  </si>
+  <si>
+    <t>Lambda: sphylogenetic signal fo the relationship between the variables of the model.</t>
+  </si>
+  <si>
+    <t>Phylogeny: amount of variability of the model explained by phylogeny.</t>
   </si>
 </sst>
 </file>
@@ -180,15 +222,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,15 +569,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9920BE0-E626-484E-A7B5-1241C2CF8068}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,497 +589,558 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.86</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="2">
         <v>0.74</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="2">
         <v>0.97</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.41</v>
       </c>
-      <c r="E4" s="3">
-        <v>1.34</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>74.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>59.38</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>263.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.73</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.44</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.42</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.66</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>74.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3">
-        <v>59.38</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>263.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E29" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="F29" s="2">
         <v>0.97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.73</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.22</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="2">
         <v>0.04</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="2">
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="29">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -1041,6 +1151,19 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/supplementary/Table S6. MCMC models random factor results.xlsx
+++ b/results/supplementary/Table S6. MCMC models random factor results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Oilcontent_Longevity/results/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{09517135-5B90-407E-B8A8-F4E3CF43D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49A74218-C69F-4754-97CC-22BCEDEB9B31}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{09517135-5B90-407E-B8A8-F4E3CF43D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39693548-F51E-447A-8225-05AD8F75EA57}"/>
   <bookViews>
-    <workbookView xWindow="-22260" yWindow="615" windowWidth="21600" windowHeight="11385" xr2:uid="{B60FAADC-B236-4CC0-A12E-AA2BC4337E27}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B60FAADC-B236-4CC0-A12E-AA2BC4337E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,10 @@
     <t>Ratio UFA/SFA ~ Snow days</t>
   </si>
   <si>
-    <t>Lambda: sphylogenetic signal fo the relationship between the variables of the model.</t>
-  </si>
-  <si>
     <t>Phylogeny: amount of variability of the model explained by phylogeny.</t>
+  </si>
+  <si>
+    <t>Lambda: phylogenetic signal fo the relationship between the variables of the model.</t>
   </si>
 </sst>
 </file>
@@ -226,14 +226,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -250,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9920BE0-E626-484E-A7B5-1241C2CF8068}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +617,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -634,8 +638,8 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -651,10 +655,10 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -672,8 +676,8 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -689,10 +693,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -710,8 +714,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,10 +731,10 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -747,8 +751,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -764,82 +768,82 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>18.149999999999999</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>74.87</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>59.38</v>
+        <v>81.709999999999994</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>263.2</v>
+        <v>315.67</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -856,8 +860,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,10 +876,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -892,8 +896,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,10 +912,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -928,8 +932,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,10 +948,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -964,8 +968,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,10 +984,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1000,8 +1004,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,10 +1020,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1036,8 +1040,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,10 +1056,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1072,8 +1076,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,10 +1092,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1108,8 +1112,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1125,12 +1129,12 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1155,15 +1159,15 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/supplementary/Table S6. MCMC models random factor results.xlsx
+++ b/results/supplementary/Table S6. MCMC models random factor results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Oilcontent_Longevity/results/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{09517135-5B90-407E-B8A8-F4E3CF43D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39693548-F51E-447A-8225-05AD8F75EA57}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{09517135-5B90-407E-B8A8-F4E3CF43D426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{513158C1-884A-48DF-857B-375B506ACC70}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B60FAADC-B236-4CC0-A12E-AA2BC4337E27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Random and phylogeny</t>
   </si>
@@ -150,13 +150,19 @@
   </si>
   <si>
     <t>Lambda: phylogenetic signal fo the relationship between the variables of the model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local alpine dataset + SID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local alpine dataset </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,22 +192,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -218,23 +225,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9920BE0-E626-484E-A7B5-1241C2CF8068}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,589 +638,613 @@
     <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
         <v>0.86</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="9">
         <v>0.74</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="9">
         <v>0.97</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
         <v>0.83</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="9">
         <v>0.41</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="9">
         <v>1.34</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
         <v>0.73</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="9">
         <v>0.5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="9">
         <v>0.93</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
         <v>1.89</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="9">
         <v>0.61</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="9">
         <v>3.44</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
         <v>0.94</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="9">
         <v>0.84</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="9">
         <v>0.99</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="9">
         <v>3.55</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
         <v>0.95</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E11" s="9">
         <v>0.87</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F11" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9">
         <v>2.42</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E12" s="9">
         <v>1.3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F12" s="9">
         <v>3.66</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
         <v>0.12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E13" s="9">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F13" s="9">
         <v>0.48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
         <v>19.170000000000002</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F14" s="9">
         <v>80.52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
         <v>0.32</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F15" s="9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9">
         <v>81.709999999999994</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F16" s="9">
         <v>315.67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
         <v>0.12</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E17" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F17" s="9">
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.09</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F18" s="9">
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
         <v>0.11</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E19" s="9">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F19" s="9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
         <v>0.08</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F20" s="9">
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
         <v>0.71</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E21" s="9">
         <v>0.44</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21" s="9">
         <v>0.97</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9">
         <v>0.66</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="9">
         <v>0.2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22" s="9">
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
         <v>0.74</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23" s="9">
         <v>0.38</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23" s="9">
         <v>0.97</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9">
         <v>0.25</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="9">
         <v>0.05</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F24" s="9">
         <v>0.47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
         <v>0.72</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="9">
         <v>0.44</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25" s="9">
         <v>0.96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9">
         <v>0.7</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="9">
         <v>0.21</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F26" s="9">
         <v>1.36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9">
         <v>0.76</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E27" s="9">
         <v>0.41</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F27" s="9">
         <v>0.97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9">
         <v>0.26</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E28" s="9">
         <v>0.05</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F28" s="9">
         <v>0.48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9">
         <v>0.71</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="9">
         <v>0.44</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="9">
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9">
         <v>0.64</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="9">
         <v>0.2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="9">
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
         <v>0.73</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E31" s="9">
         <v>0.38</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="9">
         <v>0.97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
         <v>0.22</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="9">
         <v>0.04</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F32" s="9">
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B29:B30"/>
+  <mergeCells count="31">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
